--- a/data/data_investimentos.xlsx
+++ b/data/data_investimentos.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antera\Primatech_Analyzer v_1.0.3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6313EDD2-A00C-429E-B591-469C98DAD17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C874CB6-A826-49F6-9943-77ACA49FC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
   <si>
     <t>Empresa</t>
   </si>
@@ -100,13 +113,7 @@
     <t>15/06/2018</t>
   </si>
   <si>
-    <t>18/12/2107</t>
-  </si>
-  <si>
     <t>12/06/2017</t>
-  </si>
-  <si>
-    <t>07/12/2118</t>
   </si>
   <si>
     <t>25/03/2019</t>
@@ -233,7 +240,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +253,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -282,10 +299,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -294,8 +312,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,9 +633,11 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,9 +651,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -640,9 +665,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -653,10 +678,18 @@
       <c r="D3" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <f>SUM(D2:D45)</f>
+        <v>56100000</v>
+      </c>
+      <c r="K3" s="4">
+        <f>56000400-J3</f>
+        <v>-99600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -668,9 +701,9 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -681,78 +714,85 @@
       <c r="D5" s="2">
         <v>400000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>52650000</v>
+      </c>
+      <c r="K5" s="4">
+        <f>J3-J5</f>
+        <v>3450000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
+      <c r="C6" s="5">
+        <v>43087</v>
       </c>
       <c r="D6" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>750000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="5">
+        <v>43441</v>
       </c>
       <c r="D8" s="2">
         <v>750000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>750000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>250000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -760,13 +800,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -774,13 +814,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -788,13 +828,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -802,35 +842,35 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>1400000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>1400000</v>
@@ -838,13 +878,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>1800000</v>
@@ -858,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>1750000</v>
@@ -872,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>500000</v>
@@ -886,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2">
         <v>1250000</v>
@@ -894,13 +934,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2">
         <v>1750000</v>
@@ -908,13 +948,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2">
         <v>1750000</v>
@@ -928,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2">
         <v>1500000</v>
@@ -942,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2">
         <v>1500000</v>
@@ -956,7 +996,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2">
         <v>2000000</v>
@@ -970,7 +1010,7 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2">
         <v>2000000</v>
@@ -984,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>1500000</v>
@@ -998,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2">
         <v>1000000</v>
@@ -1012,10 +1052,10 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1026,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2">
         <v>1000000</v>
@@ -1040,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2">
         <v>1100000</v>
@@ -1054,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2">
         <v>500000</v>
@@ -1068,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2">
         <v>900000</v>
@@ -1082,7 +1122,7 @@
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2">
         <v>2000000</v>
@@ -1096,7 +1136,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2">
         <v>1000000</v>
@@ -1110,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2">
         <v>1200000</v>
@@ -1124,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D37" s="2">
         <v>1200000</v>
@@ -1138,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2">
         <v>1500000</v>
@@ -1152,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="2">
         <v>1000000</v>
@@ -1160,13 +1200,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="2">
         <v>4500000</v>
@@ -1174,13 +1214,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" s="2">
         <v>1500000</v>
@@ -1188,16 +1228,16 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45561</v>
       </c>
       <c r="D42" s="2">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,23 +1248,37 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="2">
         <v>2000000</v>
       </c>
     </row>

--- a/data/data_investimentos.xlsx
+++ b/data/data_investimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antera\Primatech_Analyzer v_1.0.3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C874CB6-A826-49F6-9943-77ACA49FC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E354E-BD21-40E0-8ECF-6260E13C1D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>Empresa</t>
   </si>
@@ -621,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,12 +679,12 @@
         <v>500000</v>
       </c>
       <c r="J3" s="2">
-        <f>SUM(D2:D45)</f>
-        <v>56100000</v>
+        <f>SUM(D2:D46)</f>
+        <v>51100000</v>
       </c>
       <c r="K3" s="4">
         <f>56000400-J3</f>
-        <v>-99600</v>
+        <v>4900400</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
       </c>
       <c r="K5" s="4">
         <f>J3-J5</f>
-        <v>3450000</v>
+        <v>-1550000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1114,18 +1114,18 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45209</v>
       </c>
       <c r="D34" s="2">
-        <v>2000000</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,10 +1136,10 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2">
         <v>1200000</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="2">
-        <v>1500000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,24 +1192,24 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2">
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,10 +1220,10 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2">
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,8 +1233,8 @@
       <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="5">
-        <v>45561</v>
+      <c r="C42" t="s">
+        <v>56</v>
       </c>
       <c r="D42" s="2">
         <v>1500000</v>
@@ -1242,16 +1242,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45561</v>
       </c>
       <c r="D43" s="2">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,23 +1262,37 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>2000000</v>
       </c>
     </row>

--- a/data/data_investimentos.xlsx
+++ b/data/data_investimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antera\Primatech_Analyzer v_1.0.3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E354E-BD21-40E0-8ECF-6260E13C1D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70BACCD-DB5F-4200-81BB-A426FFAFE6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
